--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11625"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,22 +15,142 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zsbin</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落器</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落组别</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+进阶组别</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最小进阶数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+最大进阶数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
-    <t>掉落器</t>
+    <t>id</t>
   </si>
   <si>
-    <t>掉落组别</t>
+    <t>groupId</t>
   </si>
   <si>
-    <t>进阶组别</t>
+    <t>upGroupID</t>
   </si>
   <si>
-    <t>最小进阶数</t>
+    <t>mix</t>
   </si>
   <si>
-    <t>最大进阶数</t>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -38,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +169,89 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -68,22 +271,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -91,106 +278,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,19 +325,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,163 +493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,17 +606,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,13 +1121,13 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9.375"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
@@ -1390,6 +1510,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="15030" windowHeight="4335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>upGroupID</t>
   </si>
   <si>
-    <t>mix</t>
+    <t>min</t>
   </si>
   <si>
     <t>max</t>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,6 +169,59 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,75 +234,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +270,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -278,31 +285,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,13 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,163 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +516,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,15 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -567,32 +588,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,8 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="4335"/>
+    <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -173,55 +173,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,46 +235,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,32 +257,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,30 +539,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,17 +561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +577,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\配置表1114\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingyu\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16:N17"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,70 +794,70 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>10000016</v>
+        <v>10000031</v>
       </c>
       <c r="B8">
-        <v>2000001</v>
+        <v>300001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>300002</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>10000017</v>
+        <v>10000032</v>
       </c>
       <c r="B9">
-        <v>2000002</v>
+        <v>300002</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>300003</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>10000018</v>
+        <v>10000033</v>
       </c>
       <c r="B10">
-        <v>2000003</v>
+        <v>300003</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>300004</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10000019</v>
+        <v>10000034</v>
       </c>
       <c r="B11">
-        <v>2000004</v>
+        <v>300004</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -868,16 +868,16 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10000020</v>
+        <v>20000001</v>
       </c>
       <c r="B12">
-        <v>2000005</v>
+        <v>2000001</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -889,15 +889,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10000021</v>
+        <v>20000002</v>
       </c>
       <c r="B13">
-        <v>2000006</v>
+        <v>2000002</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -909,15 +909,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10000022</v>
+        <v>20000003</v>
       </c>
       <c r="B14">
-        <v>2000007</v>
+        <v>2000003</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -929,15 +929,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>10000023</v>
+        <v>20000004</v>
       </c>
       <c r="B15">
-        <v>2000008</v>
+        <v>2000004</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -949,15 +949,15 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>10000024</v>
+        <v>20000005</v>
       </c>
       <c r="B16">
-        <v>2000009</v>
+        <v>2000005</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -969,15 +969,15 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>10000025</v>
+        <v>20000006</v>
       </c>
       <c r="B17">
-        <v>2000010</v>
+        <v>2000006</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -989,15 +989,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>10000026</v>
+        <v>20000007</v>
       </c>
       <c r="B18">
-        <v>2000011</v>
+        <v>2000007</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1009,15 +1009,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>10000027</v>
+        <v>20000008</v>
       </c>
       <c r="B19">
-        <v>2000012</v>
+        <v>2000008</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1029,15 +1029,15 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>10000028</v>
+        <v>20000009</v>
       </c>
       <c r="B20">
-        <v>2000013</v>
+        <v>2000009</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1049,15 +1049,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>10000029</v>
+        <v>20000010</v>
       </c>
       <c r="B21">
-        <v>2000014</v>
+        <v>2000010</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1069,15 +1069,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>10000030</v>
+        <v>20000011</v>
       </c>
       <c r="B22">
-        <v>2000015</v>
+        <v>2000011</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1089,75 +1089,75 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>10000031</v>
+        <v>20000012</v>
       </c>
       <c r="B23">
-        <v>300001</v>
+        <v>2000012</v>
       </c>
       <c r="C23">
-        <v>300002</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>10000032</v>
+        <v>20000013</v>
       </c>
       <c r="B24">
-        <v>300002</v>
+        <v>2000013</v>
       </c>
       <c r="C24">
-        <v>300003</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>10000033</v>
+        <v>20000014</v>
       </c>
       <c r="B25">
-        <v>300003</v>
+        <v>2000014</v>
       </c>
       <c r="C25">
-        <v>300004</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>10000034</v>
+        <v>20000015</v>
       </c>
       <c r="B26">
-        <v>300004</v>
+        <v>2000015</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1168,8 +1168,8 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
+      <c r="F26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingyu\Desktop\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1119\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="A8" sqref="A8:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,70 +794,70 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>10000031</v>
+        <v>20000001</v>
       </c>
       <c r="B8">
-        <v>300001</v>
+        <v>2000001</v>
       </c>
       <c r="C8">
-        <v>300002</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>10000032</v>
+        <v>20000002</v>
       </c>
       <c r="B9">
-        <v>300002</v>
+        <v>2000002</v>
       </c>
       <c r="C9">
-        <v>300003</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>10000033</v>
+        <v>20000003</v>
       </c>
       <c r="B10">
-        <v>300003</v>
+        <v>2000003</v>
       </c>
       <c r="C10">
-        <v>300004</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10000034</v>
+        <v>20000004</v>
       </c>
       <c r="B11">
-        <v>300004</v>
+        <v>2000004</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -868,16 +868,16 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
+      <c r="F11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>20000001</v>
+        <v>20000005</v>
       </c>
       <c r="B12">
-        <v>2000001</v>
+        <v>2000005</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -889,15 +889,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>20000002</v>
+        <v>20000006</v>
       </c>
       <c r="B13">
-        <v>2000002</v>
+        <v>2000006</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -909,15 +909,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>20000003</v>
+        <v>20000007</v>
       </c>
       <c r="B14">
-        <v>2000003</v>
+        <v>2000007</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -929,15 +929,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>20000004</v>
+        <v>20000008</v>
       </c>
       <c r="B15">
-        <v>2000004</v>
+        <v>2000008</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -949,15 +949,15 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>20000005</v>
+        <v>20000009</v>
       </c>
       <c r="B16">
-        <v>2000005</v>
+        <v>2000009</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -969,15 +969,15 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>20000006</v>
+        <v>20000010</v>
       </c>
       <c r="B17">
-        <v>2000006</v>
+        <v>2000010</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -989,15 +989,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>20000007</v>
+        <v>20000011</v>
       </c>
       <c r="B18">
-        <v>2000007</v>
+        <v>2000011</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1009,15 +1009,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>20000008</v>
+        <v>20000012</v>
       </c>
       <c r="B19">
-        <v>2000008</v>
+        <v>2000012</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1029,15 +1029,15 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>20000009</v>
+        <v>20000013</v>
       </c>
       <c r="B20">
-        <v>2000009</v>
+        <v>2000013</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1049,15 +1049,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20000010</v>
+        <v>20000014</v>
       </c>
       <c r="B21">
-        <v>2000010</v>
+        <v>2000014</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1069,15 +1069,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20000011</v>
+        <v>20000015</v>
       </c>
       <c r="B22">
-        <v>2000011</v>
+        <v>2000015</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1089,75 +1089,75 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>20000012</v>
+        <v>10000031</v>
       </c>
       <c r="B23">
-        <v>2000012</v>
+        <v>300001</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>300002</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>20000013</v>
+        <v>10000032</v>
       </c>
       <c r="B24">
-        <v>2000013</v>
+        <v>300002</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>300003</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>20000014</v>
+        <v>10000033</v>
       </c>
       <c r="B25">
-        <v>2000014</v>
+        <v>300003</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>300004</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>20000015</v>
+        <v>10000034</v>
       </c>
       <c r="B26">
-        <v>2000015</v>
+        <v>300004</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1168,8 +1168,8 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大魔王\配置表1119\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8F7A1-2D8B-4883-93BE-5CB5FA2285A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570"/>
+    <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -194,9 +195,6 @@
   </si>
   <si>
     <t>准备</t>
-  </si>
-  <si>
-    <t>无目标治疗</t>
   </si>
   <si>
     <t>连环斩</t>
@@ -263,11 +261,43 @@
   <si>
     <t>绿色纯粹之剑</t>
   </si>
+  <si>
+    <t>随机掉一件绿色或者蓝色装备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机掉一件紫色或者橙色装备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂痛击，痛击，压制三选一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗，祭品，准备三选一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柱，撕裂，百裂斩三选一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴血，手雷，汲魂三选一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制，连环斩，撕裂三选一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带暴击的橙色靴子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,6 +457,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -462,6 +509,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,11 +701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G22"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -709,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -729,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -749,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -769,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -789,75 +853,75 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>20000001</v>
+        <v>10000031</v>
       </c>
       <c r="B8">
-        <v>2000001</v>
+        <v>300001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>300002</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>20000002</v>
+        <v>10000032</v>
       </c>
       <c r="B9">
-        <v>2000002</v>
+        <v>300002</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>300003</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>20000003</v>
+        <v>10000033</v>
       </c>
       <c r="B10">
-        <v>2000003</v>
+        <v>300003</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>300004</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>20000004</v>
+        <v>10000034</v>
       </c>
       <c r="B11">
-        <v>2000004</v>
+        <v>300004</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -868,36 +932,36 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>20000005</v>
+        <v>10000035</v>
       </c>
       <c r="B12">
-        <v>2000005</v>
+        <v>300005</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>300006</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>20000006</v>
+        <v>10000036</v>
       </c>
       <c r="B13">
-        <v>2000006</v>
+        <v>300006</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -908,16 +972,16 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>20000007</v>
+        <v>20000001</v>
       </c>
       <c r="B14">
-        <v>2000007</v>
+        <v>2000001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -929,15 +993,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>20000008</v>
+        <v>20000002</v>
       </c>
       <c r="B15">
-        <v>2000008</v>
+        <v>2000002</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -949,15 +1013,15 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>20000009</v>
+        <v>20000003</v>
       </c>
       <c r="B16">
-        <v>2000009</v>
+        <v>2000003</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -969,15 +1033,15 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>20000010</v>
+        <v>20000004</v>
       </c>
       <c r="B17">
-        <v>2000010</v>
+        <v>2000004</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -989,15 +1053,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>20000011</v>
+        <v>20000005</v>
       </c>
       <c r="B18">
-        <v>2000011</v>
+        <v>2000005</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1009,15 +1073,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>20000012</v>
+        <v>20000006</v>
       </c>
       <c r="B19">
-        <v>2000012</v>
+        <v>2000006</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1029,15 +1093,15 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>20000013</v>
+        <v>20000007</v>
       </c>
       <c r="B20">
-        <v>2000013</v>
+        <v>2000007</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1049,15 +1113,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20000014</v>
+        <v>20000008</v>
       </c>
       <c r="B21">
-        <v>2000014</v>
+        <v>2000008</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1069,15 +1133,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20000015</v>
+        <v>20000009</v>
       </c>
       <c r="B22">
-        <v>2000015</v>
+        <v>2000009</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1089,75 +1153,75 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>10000031</v>
+        <v>20000010</v>
       </c>
       <c r="B23">
-        <v>300001</v>
+        <v>2000010</v>
       </c>
       <c r="C23">
-        <v>300002</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>10000032</v>
+        <v>20000011</v>
       </c>
       <c r="B24">
-        <v>300002</v>
+        <v>2000011</v>
       </c>
       <c r="C24">
-        <v>300003</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>10000033</v>
+        <v>20000012</v>
       </c>
       <c r="B25">
-        <v>300003</v>
+        <v>2000012</v>
       </c>
       <c r="C25">
-        <v>300004</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>10000034</v>
+        <v>20000013</v>
       </c>
       <c r="B26">
-        <v>300004</v>
+        <v>2000013</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1168,8 +1232,148 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20000014</v>
+      </c>
+      <c r="B27">
+        <v>2000014</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>20000015</v>
+      </c>
+      <c r="B28">
+        <v>2000015</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>20000016</v>
+      </c>
+      <c r="B29">
+        <v>2000016</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>20000017</v>
+      </c>
+      <c r="B30">
+        <v>2000017</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>20000018</v>
+      </c>
+      <c r="B31">
+        <v>2000018</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>20000019</v>
+      </c>
+      <c r="B32">
+        <v>2000019</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10000037</v>
+      </c>
+      <c r="B33">
+        <v>300007</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1195,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8F7A1-2D8B-4883-93BE-5CB5FA2285A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20819D-9C32-4899-88BE-68927BC07883}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>带暴击的橙色靴子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻击的头盔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
@@ -1374,6 +1378,26 @@
       </c>
       <c r="F33" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>10000038</v>
+      </c>
+      <c r="B34">
+        <v>300008</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/d-掉落器配置表.xlsx
+++ b/other/配置表/d-掉落器配置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC20819D-9C32-4899-88BE-68927BC07883}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B3947A-3799-4531-8572-31B895296F4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9210" yWindow="6570" windowWidth="9210" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -219,31 +219,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>随便掉一件紫色装备,20次给件橙色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>随便掉一件蓝色装备,10次给件紫色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>随便掉一件绿色装备,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10次给件蓝色</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>绿色纯粹头盔</t>
   </si>
   <si>
@@ -295,6 +270,22 @@
   </si>
   <si>
     <t>加攻击的头盔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻速紫色刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便掉一件绿色装备,3次给件蓝色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便掉一件蓝色装备,5次给件紫色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便掉一件紫色装备,7次给件橙色</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -777,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -797,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -817,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -837,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -857,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -874,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -891,13 +882,13 @@
         <v>300003</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -911,13 +902,13 @@
         <v>300004</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -957,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -977,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1277,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1297,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1317,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1337,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1357,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1377,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1397,7 +1388,27 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>10000039</v>
+      </c>
+      <c r="B35">
+        <v>300009</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
